--- a/warning_list.xlsx
+++ b/warning_list.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11865" windowWidth="19200" xWindow="0" yWindow="60"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
   <si>
     <t>요놈의 밥도둑</t>
   </si>
@@ -27,7 +27,7 @@
     <t>419395943037665302</t>
   </si>
   <si>
-    <t>֍세린֎</t>
+    <t>֍Serin֍</t>
   </si>
   <si>
     <t>285684780195119104</t>
@@ -36,6 +36,9 @@
     <t>499237139964362763</t>
   </si>
   <si>
+    <t>Setop25</t>
+  </si>
+  <si>
     <t>371250373710577666</t>
   </si>
   <si>
@@ -117,7 +120,7 @@
     <t>343365983177801729</t>
   </si>
   <si>
-    <t>주효니</t>
+    <t>PKP</t>
   </si>
   <si>
     <t>509332252258467841</t>
@@ -169,6 +172,48 @@
   </si>
   <si>
     <t>540487688260943903</t>
+  </si>
+  <si>
+    <t>JY</t>
+  </si>
+  <si>
+    <t>311791989681291264</t>
+  </si>
+  <si>
+    <t>Happy New Year 2019 creeper♥</t>
+  </si>
+  <si>
+    <t>310312700280569856</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>274344023274160128</t>
+  </si>
+  <si>
+    <t>jj70806d</t>
+  </si>
+  <si>
+    <t>324442734024851459</t>
+  </si>
+  <si>
+    <t>Aiden</t>
+  </si>
+  <si>
+    <t>360416747762876418</t>
+  </si>
+  <si>
+    <t>돌려</t>
+  </si>
+  <si>
+    <t>544850792587460618</t>
+  </si>
+  <si>
+    <t>Jiwon</t>
+  </si>
+  <si>
+    <t>400965869120782337</t>
   </si>
   <si>
     <t>-</t>
@@ -178,27 +223,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -214,19 +258,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -514,18 +559,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="22.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="22.125" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -534,15 +573,15 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="n">
-        <v>1</v>
+      <c r="C1">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>2</v>
       </c>
     </row>
@@ -553,1110 +592,1125 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
-        <v>17</v>
+      <c r="C3">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="n">
+        <v>17</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="n">
+        <v>19</v>
+      </c>
+      <c r="C12">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C14">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="C16">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="n">
+        <v>27</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="n">
+        <v>29</v>
+      </c>
+      <c r="C18">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="n">
+        <v>31</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="n">
+        <v>33</v>
+      </c>
+      <c r="C20">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="C22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="n">
+        <v>39</v>
+      </c>
+      <c r="C23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="n">
+        <v>41</v>
+      </c>
+      <c r="C24">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="n">
+        <v>43</v>
+      </c>
+      <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="n">
+        <v>45</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="n">
+        <v>47</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="n">
+        <v>49</v>
+      </c>
+      <c r="C28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="n">
+        <v>51</v>
+      </c>
+      <c r="C29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
       <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="n">
+        <v>53</v>
+      </c>
+      <c r="C30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
       <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="n">
+        <v>55</v>
+      </c>
+      <c r="C31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
       <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="n">
+        <v>57</v>
+      </c>
+      <c r="C32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
       <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="n">
+        <v>59</v>
+      </c>
+      <c r="C33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
       <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
       <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
       <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="n">
+        <v>65</v>
+      </c>
+      <c r="C36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" t="n">
+        <v>66</v>
+      </c>
+      <c r="C37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="n">
+        <v>66</v>
+      </c>
+      <c r="C38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="n">
+        <v>66</v>
+      </c>
+      <c r="C39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="n">
+        <v>66</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="n">
+        <v>66</v>
+      </c>
+      <c r="C41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" t="n">
+        <v>66</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" t="n">
+        <v>66</v>
+      </c>
+      <c r="C43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" t="n">
+        <v>66</v>
+      </c>
+      <c r="C44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" t="n">
+        <v>66</v>
+      </c>
+      <c r="C45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="n">
+        <v>66</v>
+      </c>
+      <c r="C46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" t="n">
+        <v>66</v>
+      </c>
+      <c r="C47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
       <c r="B51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
       <c r="B58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
       <c r="B59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
       <c r="B69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>51</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
       <c r="B77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
       <c r="B78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
       <c r="B79" t="s">
-        <v>51</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
       <c r="B80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>51</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
       <c r="B82" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
       <c r="B83" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
       <c r="B84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
       <c r="B85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
       <c r="B86" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>51</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
       <c r="B88" t="s">
-        <v>51</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
       <c r="B90" t="s">
-        <v>51</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
       <c r="B91" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
       <c r="B92" t="s">
-        <v>51</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
       <c r="B93" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
       <c r="B94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
       <c r="B95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
       <c r="B96" t="s">
-        <v>51</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>51</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
       <c r="B99" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
       <c r="B100" t="s">
-        <v>51</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
       <c r="B101" t="s">
-        <v>51</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
       <c r="B102" t="s">
-        <v>51</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>51</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>51</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
       <c r="B105" t="s">
-        <v>51</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
       <c r="B106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
       <c r="B107" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
       <c r="B108" t="s">
-        <v>51</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
       <c r="B109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
       <c r="B110" t="s">
-        <v>51</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>51</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
       <c r="B112" t="s">
-        <v>51</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
       <c r="B113" t="s">
-        <v>51</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
       <c r="B114" t="s">
-        <v>51</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
       <c r="B115" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
       <c r="B116" t="s">
-        <v>51</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
       <c r="B117" t="s">
-        <v>51</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
       <c r="B118" t="s">
-        <v>51</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
       <c r="B119" t="s">
-        <v>51</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
       <c r="B120" t="s">
-        <v>51</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
       <c r="B121" t="s">
-        <v>51</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
       <c r="B122" t="s">
-        <v>51</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
       <c r="B123" t="s">
-        <v>51</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
       <c r="B124" t="s">
-        <v>51</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
       <c r="B125" t="s">
-        <v>51</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
       <c r="B126" t="s">
-        <v>51</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
       <c r="B127" t="s">
-        <v>51</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
       <c r="B128" t="s">
-        <v>51</v>
-      </c>
-      <c r="C128" t="n">
+        <v>66</v>
+      </c>
+      <c r="C128">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>